--- a/data/ConjuntoStyles.xlsx
+++ b/data/ConjuntoStyles.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriaalderete/Desktop/DAV/Spring 2021/DATA 73200 - Interactive Data Viz/Portfolio folders and files/Portfolio-Interactive-Data-Vis-Sp2021/Project 1 - Exploratory Visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriaalderete/Desktop/DAV/Spring 2021/DATA 73200 - Interactive Data Viz/Portfolio-Interactive-Data-Vis-Sp2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49053BA-47A4-4047-9DB6-F47E7BBA5B68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98353F2-2AAD-FF4D-832A-1D24061473C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{7B41A63A-AB2D-C84F-A26F-316828E8B72B}"/>
+    <workbookView xWindow="-38400" yWindow="-3100" windowWidth="38380" windowHeight="21100" xr2:uid="{7B41A63A-AB2D-C84F-A26F-316828E8B72B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ConjuntoStyles" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ConjuntoStyles!$A$1:$F$38</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="143">
-  <si>
-    <t>Song Title</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
   <si>
     <t>Style</t>
   </si>
@@ -177,9 +174,6 @@
     <t>Rafael Otero</t>
   </si>
   <si>
-    <t>Vals Peruano</t>
-  </si>
-  <si>
     <t>El Zopilote Mojado</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>http://frontera.library.ucla.edu/recordings/la-tuna</t>
   </si>
   <si>
-    <t>Vals bajito</t>
-  </si>
-  <si>
     <t>Ay Te Dejo En San Antonio</t>
   </si>
   <si>
@@ -466,6 +457,18 @@
   </si>
   <si>
     <t>http://frontera.library.ucla.edu/recordings/el-charro-11</t>
+  </si>
+  <si>
+    <t>SongTitle</t>
+  </si>
+  <si>
+    <t>Style2</t>
+  </si>
+  <si>
+    <t>bajito</t>
+  </si>
+  <si>
+    <t>Peruano</t>
   </si>
 </sst>
 </file>
@@ -523,11 +526,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -843,709 +847,725 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869EE42C-03C9-F24E-9DD8-92F9E99EEE82}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F43" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" t="s">
-        <v>110</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E38" xr:uid="{D0679FBE-4FD5-FB48-BB0D-441102160766}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
+  <autoFilter ref="A1:F38" xr:uid="{D0679FBE-4FD5-FB48-BB0D-441102160766}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F43">
       <sortCondition ref="B1:B43"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E42" r:id="rId1" xr:uid="{BF12E196-EA41-8440-83B7-68B7B5E6A0B3}"/>
+    <hyperlink ref="F42" r:id="rId1" xr:uid="{BF12E196-EA41-8440-83B7-68B7B5E6A0B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
